--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Matn1-Itga1.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H2">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I2">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J2">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N2">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O2">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P2">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q2">
-        <v>17.1425514295425</v>
+        <v>5.693156105421667</v>
       </c>
       <c r="R2">
-        <v>102.855308577255</v>
+        <v>34.15893663253</v>
       </c>
       <c r="S2">
-        <v>0.1278464232288341</v>
+        <v>0.1678702090628781</v>
       </c>
       <c r="T2">
-        <v>0.1067573170576183</v>
+        <v>0.1615275139115255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H3">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I3">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J3">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.081356</v>
       </c>
       <c r="O3">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P3">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q3">
-        <v>0.723240132348</v>
+        <v>0.2134989493133334</v>
       </c>
       <c r="R3">
-        <v>6.509161191131999</v>
+        <v>1.92149054382</v>
       </c>
       <c r="S3">
-        <v>0.005393809925918832</v>
+        <v>0.006295297826420582</v>
       </c>
       <c r="T3">
-        <v>0.006756098393685542</v>
+        <v>0.009086160786755197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H4">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I4">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J4">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N4">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O4">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P4">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q4">
-        <v>0.8062773253379998</v>
+        <v>0.4874177470866667</v>
       </c>
       <c r="R4">
-        <v>7.256495928041999</v>
+        <v>4.386759723780001</v>
       </c>
       <c r="S4">
-        <v>0.006013088109937513</v>
+        <v>0.01437215449379207</v>
       </c>
       <c r="T4">
-        <v>0.007531784671429262</v>
+        <v>0.02074369000218237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H5">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I5">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J5">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N5">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O5">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P5">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q5">
-        <v>7.336460398660499</v>
+        <v>3.334796222323333</v>
       </c>
       <c r="R5">
-        <v>44.01876239196299</v>
+        <v>20.00877733394</v>
       </c>
       <c r="S5">
-        <v>0.05471415529851283</v>
+        <v>0.09833086053804091</v>
       </c>
       <c r="T5">
-        <v>0.04568869646269232</v>
+        <v>0.09461559339299702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H6">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I6">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J6">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N6">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O6">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P6">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q6">
-        <v>14.327475840756</v>
+        <v>0.04254852407</v>
       </c>
       <c r="R6">
-        <v>128.947282566804</v>
+        <v>0.38293671663</v>
       </c>
       <c r="S6">
-        <v>0.1068520370300019</v>
+        <v>0.001254599294079743</v>
       </c>
       <c r="T6">
-        <v>0.1338391388750037</v>
+        <v>0.001810794536378544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.306399</v>
+        <v>0.09044833333333334</v>
       </c>
       <c r="H7">
-        <v>0.9191969999999999</v>
+        <v>0.271345</v>
       </c>
       <c r="I7">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="J7">
-        <v>0.3017954127735522</v>
+        <v>0.2888886286400532</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N7">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O7">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P7">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q7">
-        <v>0.130855455058</v>
+        <v>0.02596144541555555</v>
       </c>
       <c r="R7">
-        <v>1.177699095522</v>
+        <v>0.23365300874</v>
       </c>
       <c r="S7">
-        <v>0.000975899180346996</v>
+        <v>0.0007655074248418172</v>
       </c>
       <c r="T7">
-        <v>0.001222377313123101</v>
+        <v>0.001104876010214514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H8">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I8">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J8">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N8">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O8">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P8">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q8">
-        <v>39.6593438411625</v>
+        <v>14.01394047439966</v>
       </c>
       <c r="R8">
-        <v>237.956063046975</v>
+        <v>84.08364284639799</v>
       </c>
       <c r="S8">
-        <v>0.2957730813020774</v>
+        <v>0.4132194996360389</v>
       </c>
       <c r="T8">
-        <v>0.2469833712997693</v>
+        <v>0.3976066917923067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H9">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I9">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J9">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>7.081356</v>
       </c>
       <c r="O9">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P9">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q9">
-        <v>1.67321820246</v>
+        <v>0.5255365410013333</v>
       </c>
       <c r="R9">
-        <v>15.05896382214</v>
+        <v>4.729828869012</v>
       </c>
       <c r="S9">
-        <v>0.01247859534475372</v>
+        <v>0.01549613735763555</v>
       </c>
       <c r="T9">
-        <v>0.01563025377646782</v>
+        <v>0.02236596257832294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H10">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I10">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J10">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N10">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O10">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P10">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q10">
-        <v>1.86532499601</v>
+        <v>1.199799051238667</v>
       </c>
       <c r="R10">
-        <v>16.78792496409</v>
+        <v>10.798191461148</v>
       </c>
       <c r="S10">
-        <v>0.013911297269801</v>
+        <v>0.03537765587932358</v>
       </c>
       <c r="T10">
-        <v>0.01742480629266411</v>
+        <v>0.05106145546108336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H11">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I11">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J11">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N11">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O11">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P11">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q11">
-        <v>16.9729230052725</v>
+        <v>8.208739561767331</v>
       </c>
       <c r="R11">
-        <v>101.837538031635</v>
+        <v>49.25243737060399</v>
       </c>
       <c r="S11">
-        <v>0.126581361408253</v>
+        <v>0.242045501802473</v>
       </c>
       <c r="T11">
-        <v>0.1057009354830198</v>
+        <v>0.2329002172444833</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H12">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I12">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J12">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N12">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O12">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P12">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q12">
-        <v>33.14665807362</v>
+        <v>0.104734961162</v>
       </c>
       <c r="R12">
-        <v>298.31992266258</v>
+        <v>0.942614650458</v>
       </c>
       <c r="S12">
-        <v>0.2472025062382776</v>
+        <v>0.003088248328499881</v>
       </c>
       <c r="T12">
-        <v>0.3096372468162126</v>
+        <v>0.004457346043965105</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7088550000000001</v>
+        <v>0.2226423333333333</v>
       </c>
       <c r="H13">
-        <v>2.126565</v>
+        <v>0.6679269999999999</v>
       </c>
       <c r="I13">
-        <v>0.6982045872264478</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="J13">
-        <v>0.6982045872264477</v>
+        <v>0.7111113713599468</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N13">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O13">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P13">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q13">
-        <v>0.30273448541</v>
+        <v>0.06390517736488888</v>
       </c>
       <c r="R13">
-        <v>2.72461036869</v>
+        <v>0.5751465962839999</v>
       </c>
       <c r="S13">
-        <v>0.00225774566328503</v>
+        <v>0.001884328355976047</v>
       </c>
       <c r="T13">
-        <v>0.002827973558314081</v>
+        <v>0.002719698239785326</v>
       </c>
     </row>
   </sheetData>
